--- a/pred_ohlcv/54_21/2020-01-24 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ABT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-12764.08762078581</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12264.08762078581</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8256.125220785809</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-8206.125220785809</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-96629.27392078581</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-97053.98582078581</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-105463.2426207858</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-108109.5118207858</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-126068.7839207858</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-103969.1558207858</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-104771.5062207858</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-103738.7862207858</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-54185.99892078579</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-40792.82322078579</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-43253.51532078578</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-45477.14272078578</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-42387.21682078577</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>17026.07336193674</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>23641.08336193674</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38209.15523806325</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11761.44962078581</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8256.125220785809</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-8206.125220785809</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5706.125220785809</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3046.125220785809</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-113688.2323207858</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-96629.27392078581</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-97053.98582078581</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-105463.2426207858</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-108109.5118207858</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-126068.7839207858</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-103969.1558207858</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-104771.5062207858</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-103738.7862207858</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-40792.82322078579</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-43142.82422078578</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-42631.73992078578</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-46140.01932078578</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-46829.53862078578</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-44428.22782078578</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-44449.58272078578</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-53225.12922078578</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-55074.23932078577</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-45477.14272078578</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-40649.95842078578</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-43570.53942078578</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-37474.78512078577</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-38071.83012078577</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-37957.11502078577</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-37957.11502078577</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-41010.28692078577</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-42387.21682078577</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-42048.49492078577</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-42048.49492078577</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-42184.80092078577</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-42184.80092078577</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-30698.02613806326</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>16520.68086193674</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>16287.80586193674</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>17070.72326193674</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>17026.07336193674</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>23641.08336193674</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-59985.41853806325</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-64686.99313806325</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-39649.44623806325</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
